--- a/server/LISTAS/mi/BULON CABEZA HEXAGONAL DISMAY.xlsx
+++ b/server/LISTAS/mi/BULON CABEZA HEXAGONAL DISMAY.xlsx
@@ -717,7 +717,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="n">
-        <v>45289</v>
+        <v>45306</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>

--- a/server/LISTAS/mi/BULON CABEZA HEXAGONAL DISMAY.xlsx
+++ b/server/LISTAS/mi/BULON CABEZA HEXAGONAL DISMAY.xlsx
@@ -717,7 +717,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>

--- a/server/LISTAS/mi/BULON CABEZA HEXAGONAL DISMAY.xlsx
+++ b/server/LISTAS/mi/BULON CABEZA HEXAGONAL DISMAY.xlsx
@@ -717,7 +717,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="C19" s="14" t="n"/>
       <c r="D19" s="6" t="n">
-        <v>1085.526</v>
+        <v>2087.754</v>
       </c>
       <c r="E19" s="10" t="n"/>
     </row>
@@ -812,7 +812,7 @@
       </c>
       <c r="C20" s="14" t="n"/>
       <c r="D20" s="6" t="n">
-        <v>1189.151</v>
+        <v>2287.052</v>
       </c>
       <c r="E20" s="2" t="n"/>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="C21" s="14" t="n"/>
       <c r="D21" s="6" t="n">
-        <v>1231.274</v>
+        <v>2368.064</v>
       </c>
       <c r="E21" s="2" t="n"/>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="C22" s="14" t="n"/>
       <c r="D22" s="6" t="n">
-        <v>1282.898</v>
+        <v>2467.352</v>
       </c>
       <c r="E22" s="2" t="n"/>
     </row>
@@ -863,7 +863,7 @@
       </c>
       <c r="C23" s="14" t="n"/>
       <c r="D23" s="6" t="n">
-        <v>15000</v>
+        <v>2582.361</v>
       </c>
       <c r="E23" s="2" t="n"/>
     </row>
@@ -880,7 +880,7 @@
       </c>
       <c r="C24" s="14" t="n"/>
       <c r="D24" s="6" t="n">
-        <v>1692.817</v>
+        <v>3255.734</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="1" s="17">
@@ -896,7 +896,7 @@
       </c>
       <c r="C25" s="14" t="n"/>
       <c r="D25" s="6" t="n">
-        <v>1907.264</v>
+        <v>3668.172</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="1" s="17">
@@ -912,7 +912,7 @@
       </c>
       <c r="C26" s="14" t="n"/>
       <c r="D26" s="6" t="n">
-        <v>2273.531</v>
+        <v>4372.601</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="1" s="17">
@@ -928,7 +928,7 @@
       </c>
       <c r="C27" s="14" t="n"/>
       <c r="D27" s="6" t="n">
-        <v>2555.924</v>
+        <v>4915.716</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="1" s="17">
@@ -944,7 +944,7 @@
       </c>
       <c r="C28" s="14" t="n"/>
       <c r="D28" s="6" t="n">
-        <v>2782.138</v>
+        <v>5350.785</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="1" s="17">
@@ -960,7 +960,7 @@
       </c>
       <c r="C29" s="14" t="n"/>
       <c r="D29" s="6" t="n">
-        <v>3040.231</v>
+        <v>5847.168</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="1" s="17">
@@ -976,7 +976,7 @@
       </c>
       <c r="C30" s="14" t="n"/>
       <c r="D30" s="6" t="n">
-        <v>3370.451</v>
+        <v>6482.267</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="1" s="17">
@@ -992,7 +992,7 @@
       </c>
       <c r="C31" s="14" t="n"/>
       <c r="D31" s="6" t="n">
-        <v>3643.731</v>
+        <v>7007.856</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="1" s="17">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="C32" s="14" t="n"/>
       <c r="D32" s="6" t="n">
-        <v>3818.321</v>
+        <v>7343.64</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="1" s="17">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C33" s="14" t="n"/>
       <c r="D33" s="6" t="n">
-        <v>4338.318</v>
+        <v>8343.731</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="1" s="17">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="C35" s="14" t="n"/>
       <c r="D35" s="6" t="n">
-        <v>4774.798</v>
+        <v>9183.198</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="1" s="17">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="C36" s="14" t="n"/>
       <c r="D36" s="6" t="n">
-        <v>5351.722</v>
+        <v>10292.774</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="1" s="17">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="C37" s="14" t="n"/>
       <c r="D37" s="6" t="n">
-        <v>5731.278</v>
+        <v>11022.761</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1" s="17"/>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="C43" s="14" t="n"/>
       <c r="D43" s="6" t="n">
-        <v>1779.176</v>
+        <v>3421.826</v>
       </c>
     </row>
     <row r="44" ht="18" customHeight="1" s="17">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="C44" s="14" t="n"/>
       <c r="D44" s="6" t="n">
-        <v>1863.615</v>
+        <v>3584.225</v>
       </c>
     </row>
     <row r="45" ht="18" customHeight="1" s="17">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="C45" s="14" t="n"/>
       <c r="D45" s="6" t="n">
-        <v>1894.741</v>
+        <v>3644.087</v>
       </c>
     </row>
     <row r="46" ht="18" customHeight="1" s="17">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="C46" s="14" t="n"/>
       <c r="D46" s="6" t="n">
-        <v>2011.638</v>
+        <v>3868.911</v>
       </c>
     </row>
     <row r="47" ht="18" customHeight="1" s="17">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C47" s="14" t="n"/>
       <c r="D47" s="6" t="n">
-        <v>2205.21</v>
+        <v>4241.202</v>
       </c>
     </row>
     <row r="48" ht="18" customHeight="1" s="17">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="C48" s="14" t="n"/>
       <c r="D48" s="6" t="n">
-        <v>2467.106</v>
+        <v>4744.896</v>
       </c>
     </row>
     <row r="49" ht="18" customHeight="1" s="17">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="C49" s="14" t="n"/>
       <c r="D49" s="6" t="n">
-        <v>2952.936</v>
+        <v>5679.276</v>
       </c>
     </row>
     <row r="50" ht="18" customHeight="1" s="17">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="C50" s="14" t="n"/>
       <c r="D50" s="6" t="n">
-        <v>3434.97</v>
+        <v>6606.352</v>
       </c>
     </row>
     <row r="51" ht="18" customHeight="1" s="17">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="C51" s="14" t="n"/>
       <c r="D51" s="6" t="n">
-        <v>3818.321</v>
+        <v>7343.64</v>
       </c>
     </row>
     <row r="52" ht="18" customHeight="1" s="17">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C52" s="14" t="n"/>
       <c r="D52" s="6" t="n">
-        <v>4209.266</v>
+        <v>8095.53</v>
       </c>
     </row>
     <row r="53" ht="18" customHeight="1" s="17">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C53" s="14" t="n"/>
       <c r="D53" s="6" t="n">
-        <v>4687.502</v>
+        <v>9015.303</v>
       </c>
     </row>
     <row r="54" ht="18" customHeight="1" s="17">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="C54" s="14" t="n"/>
       <c r="D54" s="6" t="n">
-        <v>5423.838</v>
+        <v>10431.471</v>
       </c>
     </row>
     <row r="55" ht="18" customHeight="1" s="17">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="C55" s="14" t="n"/>
       <c r="D55" s="6" t="n">
-        <v>5769.234</v>
+        <v>11095.76</v>
       </c>
     </row>
     <row r="56" ht="18" customHeight="1" s="17">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="C56" s="14" t="n"/>
       <c r="D56" s="6" t="n">
-        <v>6509.364</v>
+        <v>12519.225</v>
       </c>
     </row>
     <row r="57" ht="18" customHeight="1" s="17">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="C57" s="14" t="n"/>
       <c r="D57" s="6" t="n">
-        <v>7283.656</v>
+        <v>14008.392</v>
       </c>
     </row>
     <row r="58" ht="18" customHeight="1" s="17">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="C58" s="14" t="n"/>
       <c r="D58" s="6" t="n">
-        <v>8327.433000000001</v>
+        <v>16015.851</v>
       </c>
     </row>
     <row r="59" ht="18" customHeight="1" s="17">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C59" s="14" t="n"/>
       <c r="D59" s="6" t="n">
-        <v>9113.111999999999</v>
+        <v>17526.921</v>
       </c>
     </row>
     <row r="62" ht="24.75" customHeight="1" s="17">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C68" s="14" t="n"/>
       <c r="D68" s="6" t="n">
-        <v>2782.138</v>
+        <v>5350.785</v>
       </c>
     </row>
     <row r="69" ht="18" customHeight="1" s="17">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="C69" s="14" t="n"/>
       <c r="D69" s="6" t="n">
-        <v>2952.936</v>
+        <v>5679.276</v>
       </c>
     </row>
     <row r="70" ht="18" customHeight="1" s="17">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C70" s="14" t="n"/>
       <c r="D70" s="6" t="n">
-        <v>3169.283</v>
+        <v>6095.367</v>
       </c>
     </row>
     <row r="71" ht="18" customHeight="1" s="17">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="C71" s="14" t="n"/>
       <c r="D71" s="6" t="n">
-        <v>3803.139</v>
+        <v>7314.439</v>
       </c>
     </row>
     <row r="72" ht="18" customHeight="1" s="17">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C72" s="14" t="n"/>
       <c r="D72" s="6" t="n">
-        <v>4167.513</v>
+        <v>8015.227</v>
       </c>
     </row>
     <row r="73" ht="18" customHeight="1" s="17">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="C73" s="14" t="n"/>
       <c r="D73" s="6" t="n">
-        <v>5249.243</v>
+        <v>10095.681</v>
       </c>
     </row>
     <row r="74" ht="18" customHeight="1" s="17">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C74" s="14" t="n"/>
       <c r="D74" s="6" t="n">
-        <v>5518.721</v>
+        <v>10613.958</v>
       </c>
     </row>
     <row r="75" ht="18" customHeight="1" s="17">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="C75" s="14" t="n"/>
       <c r="D75" s="6" t="n">
-        <v>6293.02</v>
+        <v>12103.139</v>
       </c>
     </row>
     <row r="76" ht="18" customHeight="1" s="17">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C76" s="14" t="n"/>
       <c r="D76" s="6" t="n">
-        <v>6805.421</v>
+        <v>13088.622</v>
       </c>
     </row>
     <row r="77" ht="18" customHeight="1" s="17">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="C77" s="14" t="n"/>
       <c r="D77" s="6" t="n">
-        <v>7674.599</v>
+        <v>14760.281</v>
       </c>
     </row>
     <row r="78" ht="18" customHeight="1" s="17">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C78" s="14" t="n"/>
       <c r="D78" s="6" t="n">
-        <v>8278.09</v>
+        <v>15920.952</v>
       </c>
     </row>
     <row r="79" ht="18" customHeight="1" s="17">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="C79" s="14" t="n"/>
       <c r="D79" s="6" t="n">
-        <v>9113.111999999999</v>
+        <v>17526.921</v>
       </c>
     </row>
     <row r="80" ht="18" customHeight="1" s="17">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C80" s="14" t="n"/>
       <c r="D80" s="6" t="n">
-        <v>9629.305</v>
+        <v>18519.695</v>
       </c>
     </row>
     <row r="81" ht="18" customHeight="1" s="17">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C81" s="14" t="n"/>
       <c r="D81" s="6" t="n">
-        <v>10855.27</v>
+        <v>20877.551</v>
       </c>
     </row>
     <row r="82" ht="18" customHeight="1" s="17">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C82" s="14" t="n"/>
       <c r="D82" s="6" t="n">
-        <v>11883.855</v>
+        <v>22855.79</v>
       </c>
     </row>
     <row r="83" ht="18" customHeight="1" s="17">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="C83" s="14" t="n"/>
       <c r="D83" s="6" t="n">
-        <v>12753.043</v>
+        <v>24527.469</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1" s="17">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="C90" s="14" t="n"/>
       <c r="D90" s="6" t="n">
-        <v>5000</v>
+        <v>16193.52</v>
       </c>
     </row>
     <row r="91" ht="18" customHeight="1" s="17">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="C91" s="14" t="n"/>
       <c r="D91" s="6" t="n">
-        <v>19319.338</v>
+        <v>37156.187</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1" s="17"/>
@@ -1764,73 +1764,73 @@
     <row r="97" ht="18" customHeight="1" s="17"/>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B90:C90"/>
     <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B62:E62"/>
     <mergeCell ref="A39:D39"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B80:C80"/>
     <mergeCell ref="B76:C76"/>
     <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B69:C69"/>
     <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B56:C56"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B75:C75"/>
+    <mergeCell ref="B51:C51"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/BULON CABEZA HEXAGONAL DISMAY.xlsx
+++ b/server/LISTAS/mi/BULON CABEZA HEXAGONAL DISMAY.xlsx
@@ -717,7 +717,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>

--- a/server/LISTAS/mi/BULON CABEZA HEXAGONAL DISMAY.xlsx
+++ b/server/LISTAS/mi/BULON CABEZA HEXAGONAL DISMAY.xlsx
@@ -717,7 +717,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -1764,73 +1764,73 @@
     <row r="97" ht="18" customHeight="1" s="17"/>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B62:E62"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B59:C59"/>
     <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B62:E62"/>
     <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B89:C89"/>
     <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B77:C77"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B75:C75"/>
     <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B75:C75"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/BULON CABEZA HEXAGONAL DISMAY.xlsx
+++ b/server/LISTAS/mi/BULON CABEZA HEXAGONAL DISMAY.xlsx
@@ -717,7 +717,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -1764,73 +1764,73 @@
     <row r="97" ht="18" customHeight="1" s="17"/>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B62:E62"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B59:C59"/>
     <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B82:C82"/>
     <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B83:C83"/>
     <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="B80:C80"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B51:C51"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/BULON CABEZA HEXAGONAL DISMAY.xlsx
+++ b/server/LISTAS/mi/BULON CABEZA HEXAGONAL DISMAY.xlsx
@@ -717,7 +717,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -1764,73 +1764,73 @@
     <row r="97" ht="18" customHeight="1" s="17"/>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B44:C44"/>
     <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B62:E62"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B59:C59"/>
     <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B62:E62"/>
     <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B89:C89"/>
     <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="B77:C77"/>
     <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B83:C83"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B75:C75"/>
     <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B75:C75"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/BULON CABEZA HEXAGONAL DISMAY.xlsx
+++ b/server/LISTAS/mi/BULON CABEZA HEXAGONAL DISMAY.xlsx
@@ -717,7 +717,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="n">
-        <v>45406</v>
+        <v>45415</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -1040,7 +1040,7 @@
       </c>
       <c r="C34" s="14" t="n"/>
       <c r="D34" s="6" t="n">
-        <v>2613.07</v>
+        <v>1428.751</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" s="17">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C66" s="14" t="n"/>
       <c r="D66" s="6" t="n">
-        <v>4896.86</v>
+        <v>2602.427</v>
       </c>
     </row>
     <row r="67" ht="18" customHeight="1" s="17">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="C67" s="14" t="n"/>
       <c r="D67" s="6" t="n">
-        <v>4940.37</v>
+        <v>2621.453</v>
       </c>
     </row>
     <row r="68" ht="18" customHeight="1" s="17">

--- a/server/LISTAS/mi/BULON CABEZA HEXAGONAL DISMAY.xlsx
+++ b/server/LISTAS/mi/BULON CABEZA HEXAGONAL DISMAY.xlsx
@@ -717,7 +717,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="n">
-        <v>45415</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="3" t="n"/>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="C19" s="14" t="n"/>
       <c r="D19" s="6" t="n">
-        <v>1085.526</v>
+        <v>2296.529</v>
       </c>
       <c r="E19" s="10" t="n"/>
     </row>
@@ -812,7 +812,7 @@
       </c>
       <c r="C20" s="14" t="n"/>
       <c r="D20" s="6" t="n">
-        <v>1189.151</v>
+        <v>2515.757</v>
       </c>
       <c r="E20" s="2" t="n"/>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="C21" s="14" t="n"/>
       <c r="D21" s="6" t="n">
-        <v>1231.274</v>
+        <v>2604.87</v>
       </c>
       <c r="E21" s="2" t="n"/>
     </row>
@@ -846,7 +846,7 @@
       </c>
       <c r="C22" s="14" t="n"/>
       <c r="D22" s="6" t="n">
-        <v>1282.898</v>
+        <v>2714.087</v>
       </c>
       <c r="E22" s="2" t="n"/>
     </row>
@@ -863,7 +863,7 @@
       </c>
       <c r="C23" s="14" t="n"/>
       <c r="D23" s="6" t="n">
-        <v>15000</v>
+        <v>2840.597</v>
       </c>
       <c r="E23" s="2" t="n"/>
     </row>
@@ -880,7 +880,7 @@
       </c>
       <c r="C24" s="14" t="n"/>
       <c r="D24" s="6" t="n">
-        <v>1692.817</v>
+        <v>3581.307</v>
       </c>
     </row>
     <row r="25" ht="18" customHeight="1" s="17">
@@ -896,7 +896,7 @@
       </c>
       <c r="C25" s="14" t="n"/>
       <c r="D25" s="6" t="n">
-        <v>1907.264</v>
+        <v>4034.989</v>
       </c>
     </row>
     <row r="26" ht="18" customHeight="1" s="17">
@@ -912,7 +912,7 @@
       </c>
       <c r="C26" s="14" t="n"/>
       <c r="D26" s="6" t="n">
-        <v>2273.531</v>
+        <v>4809.861</v>
       </c>
     </row>
     <row r="27" ht="18" customHeight="1" s="17">
@@ -928,7 +928,7 @@
       </c>
       <c r="C27" s="14" t="n"/>
       <c r="D27" s="6" t="n">
-        <v>2555.924</v>
+        <v>5407.288</v>
       </c>
     </row>
     <row r="28" ht="18" customHeight="1" s="17">
@@ -944,7 +944,7 @@
       </c>
       <c r="C28" s="14" t="n"/>
       <c r="D28" s="6" t="n">
-        <v>2782.138</v>
+        <v>5885.863</v>
       </c>
     </row>
     <row r="29" ht="18" customHeight="1" s="17">
@@ -960,7 +960,7 @@
       </c>
       <c r="C29" s="14" t="n"/>
       <c r="D29" s="6" t="n">
-        <v>3040.231</v>
+        <v>6431.885</v>
       </c>
     </row>
     <row r="30" ht="18" customHeight="1" s="17">
@@ -976,7 +976,7 @@
       </c>
       <c r="C30" s="14" t="n"/>
       <c r="D30" s="6" t="n">
-        <v>3370.451</v>
+        <v>7130.494</v>
       </c>
     </row>
     <row r="31" ht="18" customHeight="1" s="17">
@@ -992,7 +992,7 @@
       </c>
       <c r="C31" s="14" t="n"/>
       <c r="D31" s="6" t="n">
-        <v>3643.731</v>
+        <v>7708.642</v>
       </c>
     </row>
     <row r="32" ht="18" customHeight="1" s="17">
@@ -1008,7 +1008,7 @@
       </c>
       <c r="C32" s="14" t="n"/>
       <c r="D32" s="6" t="n">
-        <v>3818.321</v>
+        <v>8078.004</v>
       </c>
     </row>
     <row r="33" ht="18" customHeight="1" s="17">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C33" s="14" t="n"/>
       <c r="D33" s="6" t="n">
-        <v>4338.318</v>
+        <v>9178.103999999999</v>
       </c>
     </row>
     <row r="34" ht="18" customHeight="1" s="17">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="C34" s="14" t="n"/>
       <c r="D34" s="6" t="n">
-        <v>1428.751</v>
+        <v>3022.652</v>
       </c>
     </row>
     <row r="35" ht="18" customHeight="1" s="17">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="C35" s="14" t="n"/>
       <c r="D35" s="6" t="n">
-        <v>4774.798</v>
+        <v>10101.518</v>
       </c>
     </row>
     <row r="36" ht="18" customHeight="1" s="17">
@@ -1072,7 +1072,7 @@
       </c>
       <c r="C36" s="14" t="n"/>
       <c r="D36" s="6" t="n">
-        <v>5351.722</v>
+        <v>11322.051</v>
       </c>
     </row>
     <row r="37" ht="18" customHeight="1" s="17">
@@ -1088,7 +1088,7 @@
       </c>
       <c r="C37" s="14" t="n"/>
       <c r="D37" s="6" t="n">
-        <v>5731.278</v>
+        <v>12125.037</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1" s="17"/>
@@ -1130,7 +1130,7 @@
       </c>
       <c r="C43" s="14" t="n"/>
       <c r="D43" s="6" t="n">
-        <v>1779.176</v>
+        <v>3764.009</v>
       </c>
     </row>
     <row r="44" ht="18" customHeight="1" s="17">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="C44" s="14" t="n"/>
       <c r="D44" s="6" t="n">
-        <v>1863.615</v>
+        <v>3942.648</v>
       </c>
     </row>
     <row r="45" ht="18" customHeight="1" s="17">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="C45" s="14" t="n"/>
       <c r="D45" s="6" t="n">
-        <v>1894.741</v>
+        <v>4008.496</v>
       </c>
     </row>
     <row r="46" ht="18" customHeight="1" s="17">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="C46" s="14" t="n"/>
       <c r="D46" s="6" t="n">
-        <v>2011.638</v>
+        <v>4255.802</v>
       </c>
     </row>
     <row r="47" ht="18" customHeight="1" s="17">
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C47" s="14" t="n"/>
       <c r="D47" s="6" t="n">
-        <v>2205.21</v>
+        <v>4665.322</v>
       </c>
     </row>
     <row r="48" ht="18" customHeight="1" s="17">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="C48" s="14" t="n"/>
       <c r="D48" s="6" t="n">
-        <v>2467.106</v>
+        <v>5219.386</v>
       </c>
     </row>
     <row r="49" ht="18" customHeight="1" s="17">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="C49" s="14" t="n"/>
       <c r="D49" s="6" t="n">
-        <v>2952.936</v>
+        <v>6247.204</v>
       </c>
     </row>
     <row r="50" ht="18" customHeight="1" s="17">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="C50" s="14" t="n"/>
       <c r="D50" s="6" t="n">
-        <v>3434.97</v>
+        <v>7266.987</v>
       </c>
     </row>
     <row r="51" ht="18" customHeight="1" s="17">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="C51" s="14" t="n"/>
       <c r="D51" s="6" t="n">
-        <v>3818.321</v>
+        <v>8078.004</v>
       </c>
     </row>
     <row r="52" ht="18" customHeight="1" s="17">
@@ -1274,7 +1274,7 @@
       </c>
       <c r="C52" s="14" t="n"/>
       <c r="D52" s="6" t="n">
-        <v>4209.266</v>
+        <v>8905.083000000001</v>
       </c>
     </row>
     <row r="53" ht="18" customHeight="1" s="17">
@@ -1290,7 +1290,7 @@
       </c>
       <c r="C53" s="14" t="n"/>
       <c r="D53" s="6" t="n">
-        <v>4687.502</v>
+        <v>9916.833000000001</v>
       </c>
     </row>
     <row r="54" ht="18" customHeight="1" s="17">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="C54" s="14" t="n"/>
       <c r="D54" s="6" t="n">
-        <v>5423.838</v>
+        <v>11474.618</v>
       </c>
     </row>
     <row r="55" ht="18" customHeight="1" s="17">
@@ -1322,7 +1322,7 @@
       </c>
       <c r="C55" s="14" t="n"/>
       <c r="D55" s="6" t="n">
-        <v>5769.234</v>
+        <v>12205.336</v>
       </c>
     </row>
     <row r="56" ht="18" customHeight="1" s="17">
@@ -1338,7 +1338,7 @@
       </c>
       <c r="C56" s="14" t="n"/>
       <c r="D56" s="6" t="n">
-        <v>6509.364</v>
+        <v>13771.148</v>
       </c>
     </row>
     <row r="57" ht="18" customHeight="1" s="17">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="C57" s="14" t="n"/>
       <c r="D57" s="6" t="n">
-        <v>7283.656</v>
+        <v>15409.231</v>
       </c>
     </row>
     <row r="58" ht="18" customHeight="1" s="17">
@@ -1370,7 +1370,7 @@
       </c>
       <c r="C58" s="14" t="n"/>
       <c r="D58" s="6" t="n">
-        <v>8327.433000000001</v>
+        <v>17617.436</v>
       </c>
     </row>
     <row r="59" ht="18" customHeight="1" s="17">
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C59" s="14" t="n"/>
       <c r="D59" s="6" t="n">
-        <v>9113.111999999999</v>
+        <v>19279.613</v>
       </c>
     </row>
     <row r="62" ht="24.75" customHeight="1" s="17">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C66" s="14" t="n"/>
       <c r="D66" s="6" t="n">
-        <v>2602.427</v>
+        <v>5505.671</v>
       </c>
     </row>
     <row r="67" ht="18" customHeight="1" s="17">
@@ -1443,7 +1443,7 @@
       </c>
       <c r="C67" s="14" t="n"/>
       <c r="D67" s="6" t="n">
-        <v>2621.453</v>
+        <v>5545.921</v>
       </c>
     </row>
     <row r="68" ht="18" customHeight="1" s="17">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C68" s="14" t="n"/>
       <c r="D68" s="6" t="n">
-        <v>2782.138</v>
+        <v>5885.863</v>
       </c>
     </row>
     <row r="69" ht="18" customHeight="1" s="17">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="C69" s="14" t="n"/>
       <c r="D69" s="6" t="n">
-        <v>2952.936</v>
+        <v>6247.204</v>
       </c>
     </row>
     <row r="70" ht="18" customHeight="1" s="17">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C70" s="14" t="n"/>
       <c r="D70" s="6" t="n">
-        <v>3169.283</v>
+        <v>6704.904</v>
       </c>
     </row>
     <row r="71" ht="18" customHeight="1" s="17">
@@ -1507,7 +1507,7 @@
       </c>
       <c r="C71" s="14" t="n"/>
       <c r="D71" s="6" t="n">
-        <v>3803.139</v>
+        <v>8045.883</v>
       </c>
     </row>
     <row r="72" ht="18" customHeight="1" s="17">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="C72" s="14" t="n"/>
       <c r="D72" s="6" t="n">
-        <v>4167.513</v>
+        <v>8816.75</v>
       </c>
     </row>
     <row r="73" ht="18" customHeight="1" s="17">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="C73" s="14" t="n"/>
       <c r="D73" s="6" t="n">
-        <v>5249.243</v>
+        <v>11105.249</v>
       </c>
     </row>
     <row r="74" ht="18" customHeight="1" s="17">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C74" s="14" t="n"/>
       <c r="D74" s="6" t="n">
-        <v>5518.721</v>
+        <v>11675.354</v>
       </c>
     </row>
     <row r="75" ht="18" customHeight="1" s="17">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="C75" s="14" t="n"/>
       <c r="D75" s="6" t="n">
-        <v>6293.02</v>
+        <v>13313.453</v>
       </c>
     </row>
     <row r="76" ht="18" customHeight="1" s="17">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C76" s="14" t="n"/>
       <c r="D76" s="6" t="n">
-        <v>6805.421</v>
+        <v>14397.484</v>
       </c>
     </row>
     <row r="77" ht="18" customHeight="1" s="17">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="C77" s="14" t="n"/>
       <c r="D77" s="6" t="n">
-        <v>7674.599</v>
+        <v>16236.309</v>
       </c>
     </row>
     <row r="78" ht="18" customHeight="1" s="17">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C78" s="14" t="n"/>
       <c r="D78" s="6" t="n">
-        <v>8278.09</v>
+        <v>17513.047</v>
       </c>
     </row>
     <row r="79" ht="18" customHeight="1" s="17">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="C79" s="14" t="n"/>
       <c r="D79" s="6" t="n">
-        <v>9113.111999999999</v>
+        <v>19279.613</v>
       </c>
     </row>
     <row r="80" ht="18" customHeight="1" s="17">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C80" s="14" t="n"/>
       <c r="D80" s="6" t="n">
-        <v>9629.305</v>
+        <v>20371.665</v>
       </c>
     </row>
     <row r="81" ht="18" customHeight="1" s="17">
@@ -1667,7 +1667,7 @@
       </c>
       <c r="C81" s="14" t="n"/>
       <c r="D81" s="6" t="n">
-        <v>10855.27</v>
+        <v>22965.306</v>
       </c>
     </row>
     <row r="82" ht="18" customHeight="1" s="17">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C82" s="14" t="n"/>
       <c r="D82" s="6" t="n">
-        <v>11883.855</v>
+        <v>25141.369</v>
       </c>
     </row>
     <row r="83" ht="18" customHeight="1" s="17">
@@ -1699,7 +1699,7 @@
       </c>
       <c r="C83" s="14" t="n"/>
       <c r="D83" s="6" t="n">
-        <v>12753.043</v>
+        <v>26980.216</v>
       </c>
     </row>
     <row r="86" ht="24.75" customHeight="1" s="17">
@@ -1740,7 +1740,7 @@
       </c>
       <c r="C90" s="14" t="n"/>
       <c r="D90" s="6" t="n">
-        <v>5000</v>
+        <v>17812.872</v>
       </c>
     </row>
     <row r="91" ht="18" customHeight="1" s="17">
@@ -1756,7 +1756,7 @@
       </c>
       <c r="C91" s="14" t="n"/>
       <c r="D91" s="6" t="n">
-        <v>19319.338</v>
+        <v>40871.806</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1" s="17"/>
@@ -1764,73 +1764,73 @@
     <row r="97" ht="18" customHeight="1" s="17"/>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B47:C47"/>
     <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B86:E86"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="B78:C78"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B82:C82"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B62:E62"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B59:C59"/>
     <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B21:C21"/>
     <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B62:E62"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B82:C82"/>
     <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B78:C78"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B74:C74"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B30:C30"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B83:C83"/>
     <mergeCell ref="A12:D12"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="B80:C80"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B76:C76"/>
-    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B50:C50"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B75:C75"/>
-    <mergeCell ref="B51:C51"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="5" horizontalDpi="0" verticalDpi="0"/>
